--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1219.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1219.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.942857571040504</v>
+        <v>1.195161700248718</v>
       </c>
       <c r="B1">
-        <v>3.529806364995972</v>
+        <v>2.176342248916626</v>
       </c>
       <c r="C1">
-        <v>3.187674011540427</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.062434229964831</v>
+        <v>2.215459108352661</v>
       </c>
       <c r="E1">
-        <v>1.252160512365967</v>
+        <v>1.213807821273804</v>
       </c>
     </row>
   </sheetData>
